--- a/CB-D-202110.xlsx
+++ b/CB-D-202110.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10FD23-13A1-46BF-AAB2-09841319A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3596F5C-9B4C-411D-969D-8AE86A05EA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="210" windowWidth="21600" windowHeight="13440" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
-    <sheet name="轮动-每月8-11号调一次" sheetId="2" r:id="rId1"/>
-    <sheet name="month" sheetId="5" r:id="rId2"/>
+    <sheet name="month" sheetId="5" r:id="rId1"/>
+    <sheet name="轮动-每月8-11号调一次" sheetId="2" r:id="rId2"/>
     <sheet name="方案" sheetId="3" r:id="rId3"/>
     <sheet name="带上是" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>总计</t>
   </si>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>搜特转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利群转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,9 +741,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +868,54 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,9 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,6 +1034,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3853777127416601E-2"/>
+          <c:y val="9.0291776027996498E-2"/>
+          <c:w val="0.90015624153175544"/>
+          <c:h val="0.61338560804899389"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>month!$B$4:$B$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>month!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>month!$C$4:$C$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>month!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3671.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2965.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2889.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE7F-4675-BFCC-3120EE485E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="0" cap="sq" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:softEdge rad="0"/>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BE7F-4675-BFCC-3120EE485E66}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>month!$B$4:$B$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>month!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>month!$D$4:$D$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>month!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18609999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE7F-4675-BFCC-3120EE485E66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="993411232"/>
+        <c:axId val="993408736"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="993411232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993408736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:minorUnit val="7"/>
+        <c:minorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="993408736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="993411232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733878A-3F3E-413A-9B57-A1EB878003CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,12 +2513,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341398EB-E9D8-4D04-8BDF-AD1DA64BD61A}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="86">
+        <v>44448</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3671.6</v>
+      </c>
+      <c r="D4" s="87">
+        <v>0.2296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="86">
+        <v>44495</v>
+      </c>
+      <c r="C5" s="40">
+        <v>2965.7</v>
+      </c>
+      <c r="D5" s="87">
+        <v>0.18490000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="86">
+        <v>44498</v>
+      </c>
+      <c r="C6">
+        <v>2889.3</v>
+      </c>
+      <c r="D6" s="87">
+        <v>0.18079999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="86">
+        <v>44520</v>
+      </c>
+      <c r="C7">
+        <v>2976</v>
+      </c>
+      <c r="D7" s="87">
+        <v>0.18609999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1310,47 +2625,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="99" t="s">
+      <c r="A1" s="107"/>
+      <c r="B1" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="95" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="105" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="102"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1384,11 +2699,11 @@
       <c r="P2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="96"/>
+      <c r="Q2" s="110"/>
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="92"/>
+      <c r="S2" s="106"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5"/>
@@ -1433,135 +2748,135 @@
       </c>
       <c r="P3" s="26">
         <f t="shared" ref="P3:P18" si="0">M3/$M$45</f>
-        <v>0.36208738559829357</v>
+        <v>0.36281402686243114</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="1:23" s="69" customFormat="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63">
+    <row r="4" spans="1:23" s="68" customFormat="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62">
         <v>123078</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>10</v>
       </c>
-      <c r="G4" s="65">
-        <v>0</v>
-      </c>
-      <c r="H4" s="66">
-        <v>0</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="66">
+      <c r="G4" s="64">
+        <v>0</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M39" si="1">J4*L4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="67" t="e">
+      <c r="N4" s="66" t="e">
         <f t="shared" ref="N4:N42" si="2">(J4-K4)/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="65">
         <v>505</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="S4" s="70"/>
-      <c r="W4" s="69" t="s">
+      <c r="Q4" s="67"/>
+      <c r="S4" s="69"/>
+      <c r="W4" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="82" customFormat="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76">
+    <row r="5" spans="1:23" s="81" customFormat="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75">
         <v>127018</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="76">
         <v>10</v>
       </c>
-      <c r="G5" s="78">
-        <v>0</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="79">
+      <c r="G5" s="77">
+        <v>0</v>
+      </c>
+      <c r="H5" s="78"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="80" t="e">
+      <c r="N5" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="11">
         <v>850.62</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="81"/>
-      <c r="S5" s="83"/>
-    </row>
-    <row r="6" spans="1:23" s="82" customFormat="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="85">
+      <c r="Q5" s="80"/>
+      <c r="S5" s="82"/>
+    </row>
+    <row r="6" spans="1:23" s="81" customFormat="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="84">
         <v>127020</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="76">
         <v>10</v>
       </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77">
-        <v>0</v>
-      </c>
-      <c r="M6" s="79">
+      <c r="G6" s="77">
+        <v>0</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="80" t="e">
+      <c r="N6" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="78">
         <v>393.83</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="S6" s="83"/>
-      <c r="V6" s="86" t="s">
+      <c r="Q6" s="80"/>
+      <c r="S6" s="82"/>
+      <c r="V6" s="85" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1605,7 +2920,7 @@
       </c>
       <c r="P7" s="26">
         <f t="shared" si="0"/>
-        <v>6.8101208622773371E-2</v>
+        <v>6.8237874936738385E-2</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="S7" s="27"/>
@@ -1653,7 +2968,7 @@
       </c>
       <c r="P8" s="26">
         <f t="shared" si="0"/>
-        <v>6.5528871820644916E-2</v>
+        <v>6.5660375938576501E-2</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="S8" s="27"/>
@@ -1698,146 +3013,143 @@
       </c>
       <c r="P9" s="26">
         <f t="shared" si="0"/>
-        <v>0.17797942005383757</v>
+        <v>0.17833659126698187</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:23" s="61" customFormat="1">
-      <c r="D10" s="61">
+    <row r="10" spans="1:23" s="60" customFormat="1">
+      <c r="D10" s="60">
         <v>113591</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <v>10</v>
       </c>
-      <c r="G10" s="61">
-        <v>0</v>
-      </c>
-      <c r="M10" s="61">
+      <c r="G10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="61" t="e">
+      <c r="N10" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="79">
+      <c r="O10" s="78">
         <v>365.15</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="B11" s="18"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23">
+    <row r="11" spans="1:23" s="89" customFormat="1">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="92">
         <v>113620</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="93">
         <v>10</v>
       </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="G11" s="94">
+        <v>0</v>
+      </c>
+      <c r="H11" s="95">
         <f t="shared" ref="H11:H12" si="6">F11*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12">
-        <v>108.93</v>
-      </c>
-      <c r="K11" s="12">
-        <v>100</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93">
         <v>10</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="95">
         <f t="shared" si="3"/>
-        <v>1089.3000000000002</v>
-      </c>
-      <c r="N11" s="26">
-        <f t="shared" si="4"/>
-        <v>8.9300000000000074E-2</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="5"/>
-        <v>89.300000000000068</v>
-      </c>
-      <c r="P11" s="26">
-        <f t="shared" si="0"/>
-        <v>6.8176313346923131E-2</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="27"/>
-      <c r="V11" s="46">
-        <v>44396</v>
-      </c>
-      <c r="W11" s="1">
-        <v>14593.19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="58" customFormat="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50">
-        <v>2</v>
-      </c>
-      <c r="C12" s="51">
-        <v>44391</v>
-      </c>
-      <c r="D12" s="52">
-        <v>128085</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="53">
-        <v>10</v>
-      </c>
-      <c r="G12" s="54">
-        <v>0</v>
-      </c>
-      <c r="H12" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53">
-        <v>0</v>
-      </c>
-      <c r="K12" s="53">
-        <v>0</v>
-      </c>
-      <c r="L12" s="53">
-        <v>0</v>
-      </c>
-      <c r="M12" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="56" t="e">
+        <v>0</v>
+      </c>
+      <c r="N11" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O11" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="57"/>
-      <c r="S12" s="59"/>
+      <c r="Q11" s="97"/>
+      <c r="S11" s="98"/>
+      <c r="V11" s="102">
+        <v>44396</v>
+      </c>
+      <c r="W11" s="89">
+        <v>14593.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="57" customFormat="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49">
+        <v>2</v>
+      </c>
+      <c r="C12" s="50">
+        <v>44391</v>
+      </c>
+      <c r="D12" s="51">
+        <v>128085</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="52">
+        <v>10</v>
+      </c>
+      <c r="G12" s="53">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52">
+        <v>0</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="55" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="56"/>
+      <c r="S12" s="58"/>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" s="18">
@@ -1886,61 +3198,61 @@
       </c>
       <c r="P13" s="26">
         <f t="shared" si="0"/>
-        <v>6.5497578185582522E-2</v>
+        <v>6.5629019503075745E-2</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="S13" s="27"/>
     </row>
-    <row r="14" spans="1:23" s="58" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50">
+    <row r="14" spans="1:23" s="57" customFormat="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49">
         <v>4</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="50">
         <v>44419</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="51">
         <v>128085</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="53">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54">
-        <v>0</v>
-      </c>
-      <c r="H14" s="55">
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53">
-        <v>0</v>
-      </c>
-      <c r="L14" s="53">
-        <v>0</v>
-      </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56" t="e">
+      <c r="J14" s="52"/>
+      <c r="K14" s="52">
+        <v>0</v>
+      </c>
+      <c r="L14" s="52">
+        <v>0</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="54">
         <v>265.35000000000002</v>
       </c>
-      <c r="P14" s="56">
+      <c r="P14" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="57" t="s">
+      <c r="Q14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="59"/>
+      <c r="S14" s="58"/>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="18"/>
@@ -1985,7 +3297,7 @@
       </c>
       <c r="P15" s="26">
         <f t="shared" si="0"/>
-        <v>6.5960723984505892E-2</v>
+        <v>6.6093094748486902E-2</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="S15" s="27"/>
@@ -1996,7 +3308,7 @@
       <c r="D16" s="23">
         <v>127034</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="15">
@@ -2033,63 +3345,63 @@
       </c>
       <c r="P16" s="26">
         <f t="shared" si="0"/>
-        <v>6.426961594573434E-2</v>
+        <v>6.4398592974026211E-2</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="S16" s="27"/>
     </row>
-    <row r="17" spans="1:19" s="69" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61">
+    <row r="17" spans="1:19" s="68" customFormat="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60">
         <v>5</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="70">
         <v>44420</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>123078</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="64">
-        <v>0</v>
-      </c>
-      <c r="G17" s="65">
-        <v>0</v>
-      </c>
-      <c r="H17" s="66">
+      <c r="F17" s="63">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64">
-        <v>0</v>
-      </c>
-      <c r="L17" s="64">
-        <v>0</v>
-      </c>
-      <c r="M17" s="66">
+      <c r="J17" s="63"/>
+      <c r="K17" s="63">
+        <v>0</v>
+      </c>
+      <c r="L17" s="63">
+        <v>0</v>
+      </c>
+      <c r="M17" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="67" t="e">
+      <c r="N17" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="65">
         <f>(J17-K17)*L17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="68"/>
-      <c r="S17" s="70"/>
+      <c r="Q17" s="67"/>
+      <c r="S17" s="69"/>
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="18"/>
@@ -2137,50 +3449,50 @@
       <c r="Q18" s="9"/>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" spans="1:19" s="69" customFormat="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63">
+    <row r="19" spans="1:19" s="68" customFormat="1">
+      <c r="B19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="62">
         <v>118002</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>10</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64" t="s">
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64">
-        <v>0</v>
-      </c>
-      <c r="M19" s="66">
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63">
+        <v>0</v>
+      </c>
+      <c r="M19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="67" t="e">
+      <c r="N19" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="66">
+      <c r="O19" s="65">
         <f>512.2</f>
         <v>512.20000000000005</v>
       </c>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="S19" s="70"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="S19" s="69"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="71">
         <v>44448</v>
       </c>
       <c r="D20" s="23">
@@ -2228,99 +3540,99 @@
       </c>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:19" s="82" customFormat="1">
-      <c r="B21" s="84"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="76">
+    <row r="21" spans="1:19" s="81" customFormat="1">
+      <c r="B21" s="83"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="75">
         <v>127018</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="76">
         <v>-20</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79">
+      <c r="G21" s="77"/>
+      <c r="H21" s="78">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77">
-        <v>0</v>
-      </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="79">
+      <c r="J21" s="76"/>
+      <c r="K21" s="76">
+        <v>0</v>
+      </c>
+      <c r="L21" s="76"/>
+      <c r="M21" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="80" t="e">
+      <c r="N21" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="79">
-        <v>0</v>
-      </c>
-      <c r="P21" s="80">
+      <c r="O21" s="78">
+        <v>0</v>
+      </c>
+      <c r="P21" s="79">
         <f>M21/$M$45</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="81"/>
-      <c r="S21" s="83"/>
-    </row>
-    <row r="22" spans="1:19" s="82" customFormat="1">
-      <c r="B22" s="84"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="76">
+      <c r="Q21" s="80"/>
+      <c r="S21" s="82"/>
+    </row>
+    <row r="22" spans="1:19" s="81" customFormat="1">
+      <c r="B22" s="83"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="75">
         <v>127020</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="76">
         <v>-10</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79">
+      <c r="G22" s="77"/>
+      <c r="H22" s="78">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77">
-        <v>0</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="79">
+      <c r="J22" s="76"/>
+      <c r="K22" s="76">
+        <v>0</v>
+      </c>
+      <c r="L22" s="76"/>
+      <c r="M22" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="80" t="e">
+      <c r="N22" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="79">
+      <c r="O22" s="78">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="79">
         <f>M22/$M$45</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="S22" s="83"/>
+      <c r="Q22" s="80"/>
+      <c r="S22" s="82"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <v>7</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="71">
         <v>44495</v>
       </c>
       <c r="D23" s="23">
@@ -2365,95 +3677,95 @@
       </c>
       <c r="P23" s="26">
         <f>M23/$M$45</f>
-        <v>6.2398882441704648E-2</v>
+        <v>6.2524105259791199E-2</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="S23" s="27"/>
     </row>
-    <row r="24" spans="1:19" s="77" customFormat="1">
-      <c r="D24" s="77">
+    <row r="24" spans="1:19" s="76" customFormat="1">
+      <c r="D24" s="76">
         <v>113591</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="76">
         <v>-10</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="76">
         <f t="shared" ref="H24:H37" si="9">F24*G24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="77">
-        <v>0</v>
-      </c>
-      <c r="M24" s="77">
+      <c r="K24" s="76">
+        <v>0</v>
+      </c>
+      <c r="M24" s="76">
         <f t="shared" ref="M24:M37" si="10">J24*L24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="77" t="e">
+      <c r="N24" s="76" t="e">
         <f t="shared" ref="N24:N37" si="11">(J24-K24)/K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="76">
         <f t="shared" ref="O24:O37" si="12">(J24-K24)*L24</f>
         <v>0</v>
       </c>
-      <c r="P24" s="77">
+      <c r="P24" s="76">
         <f t="shared" ref="P24:P37" si="13">M24/$M$45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="69" customFormat="1">
-      <c r="B25" s="105">
+    <row r="25" spans="1:19" s="68" customFormat="1">
+      <c r="B25" s="88">
         <v>8</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="70">
         <v>44498</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="62">
         <v>118002</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="63">
         <v>-10</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66">
+      <c r="G25" s="64"/>
+      <c r="H25" s="65">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I25" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64">
-        <v>0</v>
-      </c>
-      <c r="L25" s="64"/>
-      <c r="M25" s="66">
+      <c r="J25" s="63"/>
+      <c r="K25" s="63">
+        <v>0</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N25" s="67" t="e">
+      <c r="N25" s="66" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O25" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P25" s="67">
+      <c r="P25" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="68"/>
-      <c r="S25" s="70"/>
+      <c r="Q25" s="67"/>
+      <c r="S25" s="69"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1"/>
@@ -2502,76 +3814,98 @@
       <c r="Q26" s="9"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="14">
+    <row r="27" spans="1:19" s="89" customFormat="1">
+      <c r="B27" s="90">
+        <v>9</v>
+      </c>
+      <c r="C27" s="91">
+        <v>44508</v>
+      </c>
+      <c r="D27" s="92">
+        <v>113620</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="93">
+        <v>-10</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11">
+      <c r="I27" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93">
+        <v>0</v>
+      </c>
+      <c r="L27" s="93"/>
+      <c r="M27" s="95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N27" s="26" t="e">
+      <c r="N27" s="96" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="26">
+      <c r="O27" s="95">
+        <v>148.5</v>
+      </c>
+      <c r="P27" s="96">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="S27" s="27"/>
+      <c r="Q27" s="97"/>
+      <c r="S27" s="98"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="15"/>
+      <c r="D28" s="24">
+        <v>113033</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="15">
+        <v>10</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="12">
+        <v>105.73</v>
+      </c>
       <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12"/>
+        <v>102.62</v>
+      </c>
+      <c r="L28" s="12">
+        <v>10</v>
+      </c>
       <c r="M28" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="26" t="e">
+        <v>1057.3</v>
+      </c>
+      <c r="N28" s="26">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>3.0305983239134665E-2</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>31.099999999999994</v>
       </c>
       <c r="P28" s="26">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.6306318509892007E-2</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="S28" s="27"/>
@@ -3054,22 +4388,22 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="37"/>
-      <c r="K43" s="89">
+      <c r="K43" s="103">
         <f>SUMPRODUCT((K3:K41)*(L3:L41))</f>
-        <v>15980.539999999995</v>
-      </c>
-      <c r="L43" s="90"/>
+        <v>16006.739999999996</v>
+      </c>
+      <c r="L43" s="104"/>
       <c r="M43" s="38">
         <f>SUM(M3:M42)</f>
-        <v>15977.69</v>
+        <v>15945.69</v>
       </c>
       <c r="N43" s="39">
         <f>(O43)/K43</f>
-        <v>0.1808011493979553</v>
+        <v>0.18614658575075252</v>
       </c>
       <c r="O43" s="40">
         <f>SUM(O3:O42)</f>
-        <v>2889.2999999999997</v>
+        <v>2979.5999999999995</v>
       </c>
       <c r="P43" s="37"/>
       <c r="Q43" s="41"/>
@@ -3111,7 +4445,7 @@
       <c r="L45" s="42"/>
       <c r="M45" s="42">
         <f>SUM(M43:M44)</f>
-        <v>15977.69</v>
+        <v>15945.69</v>
       </c>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
@@ -3167,66 +4501,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341398EB-E9D8-4D04-8BDF-AD1DA64BD61A}">
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="87">
-        <v>44448</v>
-      </c>
-      <c r="B4" s="40">
-        <v>3671.6</v>
-      </c>
-      <c r="C4" s="88">
-        <v>0.2296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="87">
-        <v>44495</v>
-      </c>
-      <c r="B5" s="40">
-        <v>2965.7</v>
-      </c>
-      <c r="C5" s="88">
-        <v>0.18490000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="87">
-        <v>44498</v>
-      </c>
-      <c r="B6">
-        <v>2889.3</v>
-      </c>
-      <c r="C6" s="88">
-        <v>0.18079999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
   <dimension ref="C1:E23"/>
@@ -3332,7 +4606,7 @@
       </c>
     </row>
     <row r="23" spans="4:4" ht="16.5">
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>49</v>
       </c>
     </row>
